--- a/biology/Médecine/1349_en_santé_et_médecine/1349_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1349_en_santé_et_médecine/1349_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1349_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1349_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1349 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1349_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1349_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La peste noire atteint Dublin, York, Francfort et Vienne[1].
-Fondation de l'hôpital Saint-Jacques de La Rochelle[2].
-Le pape Clément VI approuve l'érection, par Imbert du Puy à Montpellier, de l'ancien hôpital des Teutons en une collégiale Saint-Sauveur dont les chanoines, restés voués à l'hospitalité, doivent « recevoir la nuit les pauvres sans asile et maintenir en tout temps un hospitalier chargé de veiller à leurs besoins[3] ».
-Fondation de l'hôpital dit « des Poules » à Belfort par Jeanne de Montbéliard[4].
-Fondation de l'hôpital Saint-Jérôme (Ospedale di San Gerolamo) par Boniface de Modène, évêque de Côme, en Lombardie[5].
-Mahaut de Saint-Pol, comtesse de Valois, fonde l'hôpital de la Sainte-Trinité à Gaillefontaine en Normandie, « pour le service des pauvres malades » et où « quatre ans après, en 1353, il y a[ura] aussi treize lits, dont deux [seront] destinés pour des femmes en travail d'enfant[6] ».
-Ouverture de l'hôpital des pauvres passants (Elendenherberge) à Strasbourg en Alsace « afin de nourrir et d'héberger les pèlerins […], des écoliers et des prêtres[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La peste noire atteint Dublin, York, Francfort et Vienne.
+Fondation de l'hôpital Saint-Jacques de La Rochelle.
+Le pape Clément VI approuve l'érection, par Imbert du Puy à Montpellier, de l'ancien hôpital des Teutons en une collégiale Saint-Sauveur dont les chanoines, restés voués à l'hospitalité, doivent « recevoir la nuit les pauvres sans asile et maintenir en tout temps un hospitalier chargé de veiller à leurs besoins ».
+Fondation de l'hôpital dit « des Poules » à Belfort par Jeanne de Montbéliard.
+Fondation de l'hôpital Saint-Jérôme (Ospedale di San Gerolamo) par Boniface de Modène, évêque de Côme, en Lombardie.
+Mahaut de Saint-Pol, comtesse de Valois, fonde l'hôpital de la Sainte-Trinité à Gaillefontaine en Normandie, « pour le service des pauvres malades » et où « quatre ans après, en 1353, il y a[ura] aussi treize lits, dont deux [seront] destinés pour des femmes en travail d'enfant ».
+Ouverture de l'hôpital des pauvres passants (Elendenherberge) à Strasbourg en Alsace « afin de nourrir et d'héberger les pèlerins […], des écoliers et des prêtres ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1349_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1349_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1349-1356 : fl. Dominique de Martiniaco de Clavaxio, maître régent à la faculté de médecine de Paris, astrologue du roi de France Jean le Bon et peut-être de Charles le Mauvais, roi de Navarre[8], auteur d'une « Pratique de la géométrie » (Practica geometriae) « qui gagna une large popularité à la fin du Moyen Âge[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1349-1356 : fl. Dominique de Martiniaco de Clavaxio, maître régent à la faculté de médecine de Paris, astrologue du roi de France Jean le Bon et peut-être de Charles le Mauvais, roi de Navarre, auteur d'une « Pratique de la géométrie » (Practica geometriae) « qui gagna une large popularité à la fin du Moyen Âge ».</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1349_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1349_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1324-1349 : Abraham ben David Caslari (en), de Besalú, dans la province de Gérone en Catalogne, compose quatre traités de médecine : deux sur les fièvres, un sur les règles pour saigner, et une autre intitulé Celui qui sustente dans la maladie[8].
-Cinq médecins de Strasbourg, Albert de Parme, Rudolf Schwenninger, Henri de Saxe, Bernard de Rostock et Henri de Lubeck, publient un « Régime de pestilence » « composé sans aucun doute à l'occasion de l'épidémie de 1349[10] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1324-1349 : Abraham ben David Caslari (en), de Besalú, dans la province de Gérone en Catalogne, compose quatre traités de médecine : deux sur les fièvres, un sur les règles pour saigner, et une autre intitulé Celui qui sustente dans la maladie.
+Cinq médecins de Strasbourg, Albert de Parme, Rudolf Schwenninger, Henri de Saxe, Bernard de Rostock et Henri de Lubeck, publient un « Régime de pestilence » « composé sans aucun doute à l'occasion de l'épidémie de 1349 ».</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1349_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1349_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après 1349 : Guy de Vigevano (né vers 1280),  médecin, anatomiste et ingénieur militaire italien.
 </t>
